--- a/data-raw/new_abundance/abundance.3bp.masked.GRCh37-test..xlsx
+++ b/data-raw/new_abundance/abundance.3bp.masked.GRCh37-test..xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="abundance.3bp.masked.GRCh37" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1284,11 +1284,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="532626928"/>
-        <c:axId val="532627472"/>
+        <c:axId val="-467148656"/>
+        <c:axId val="-467143760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="532626928"/>
+        <c:axId val="-467148656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532627472"/>
+        <c:crossAx val="-467143760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1338,7 +1338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532627472"/>
+        <c:axId val="-467143760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532626928"/>
+        <c:crossAx val="-467148656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2387,11 +2387,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="764368736"/>
-        <c:axId val="764377440"/>
+        <c:axId val="-467143216"/>
+        <c:axId val="-467144304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="764368736"/>
+        <c:axId val="-467143216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2434,7 +2434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764377440"/>
+        <c:crossAx val="-467144304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2442,7 +2442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="764377440"/>
+        <c:axId val="-467144304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,7 +2493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="764368736"/>
+        <c:crossAx val="-467143216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3990,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
@@ -4044,15 +4044,15 @@
         <v>49631236</v>
       </c>
       <c r="E3" s="1">
-        <f>B3/B$66</f>
+        <f t="shared" ref="E3:E34" si="0">B3/B$66</f>
         <v>1.4672779156672724E-2</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F66" si="0">C3/C$66</f>
+        <f t="shared" ref="F3:F66" si="1">C3/C$66</f>
         <v>1.5247121192021327E-2</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G64" si="1">F3-E3</f>
+        <f t="shared" ref="G3:G64" si="2">F3-E3</f>
         <v>5.7434203534860277E-4</v>
       </c>
     </row>
@@ -4067,15 +4067,15 @@
         <v>68012530</v>
       </c>
       <c r="E4" s="1">
-        <f>B4/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.0149112620476296E-2</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0894004886075901E-2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4489226559960528E-4</v>
       </c>
     </row>
@@ -4090,15 +4090,15 @@
         <v>82164284</v>
       </c>
       <c r="E5" s="1">
-        <f>B5/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.430197238146092E-2</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5241539336309474E-2</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3956695484855371E-4</v>
       </c>
     </row>
@@ -4113,15 +4113,15 @@
         <v>63514340</v>
       </c>
       <c r="E6" s="1">
-        <f>B6/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.0611572283234555E-2</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9512124167353959E-2</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0994481158805962E-3</v>
       </c>
     </row>
@@ -4136,15 +4136,15 @@
         <v>40464809</v>
       </c>
       <c r="E7" s="1">
-        <f>B7/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.2055133099656147E-2</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2431119926874182E-2</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7598682721803542E-4</v>
       </c>
     </row>
@@ -4159,15 +4159,15 @@
         <v>8714808</v>
       </c>
       <c r="E8" s="1">
-        <f>B8/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.6320859449808164E-3</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6772602185687455E-3</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5174273587929043E-5</v>
       </c>
     </row>
@@ -4182,15 +4182,15 @@
         <v>56362696</v>
       </c>
       <c r="E9" s="1">
-        <f>B9/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.6659988739402685E-2</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.73150807008122E-2</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5509196140951451E-4</v>
       </c>
     </row>
@@ -4205,15 +4205,15 @@
         <v>69714946</v>
       </c>
       <c r="E10" s="1">
-        <f>B10/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.2646072796715679E-2</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1417000990207505E-2</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2290718065081745E-3</v>
       </c>
     </row>
@@ -4228,15 +4228,15 @@
         <v>49466901</v>
       </c>
       <c r="E11" s="1">
-        <f>B11/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.4670965612714321E-2</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5196636137385757E-2</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2567052467143542E-4</v>
       </c>
     </row>
@@ -4251,15 +4251,15 @@
         <v>61933719</v>
       </c>
       <c r="E12" s="1">
-        <f>B12/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.8513480152241159E-2</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9026544482301306E-2</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1306433006014646E-4</v>
       </c>
     </row>
@@ -4274,15 +4274,15 @@
         <v>56432471</v>
       </c>
       <c r="E13" s="1">
-        <f>B13/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.6682970962655603E-2</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7336516150881855E-2</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5354518822625246E-4</v>
       </c>
     </row>
@@ -4297,15 +4297,15 @@
         <v>62980039</v>
       </c>
       <c r="E14" s="1">
-        <f>B14/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.0898752959621694E-2</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9347982534854251E-2</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.5507704247674434E-3</v>
       </c>
     </row>
@@ -4320,15 +4320,15 @@
         <v>46886563</v>
       </c>
       <c r="E15" s="1">
-        <f>B15/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.3937154900286675E-2</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4403935222131946E-2</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6678032184527089E-4</v>
       </c>
     </row>
@@ -4343,15 +4343,15 @@
         <v>64513262</v>
       </c>
       <c r="E16" s="1">
-        <f>B16/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.9161141573279181E-2</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9819001167059876E-2</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5785959378069497E-4</v>
       </c>
     </row>
@@ -4366,15 +4366,15 @@
         <v>82274584</v>
       </c>
       <c r="E17" s="1">
-        <f>B17/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.4333437034262405E-2</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5275424397472969E-2</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4198736321056409E-4</v>
       </c>
     </row>
@@ -4389,15 +4389,15 @@
         <v>64164545</v>
       </c>
       <c r="E18" s="1">
-        <f>B18/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.894687288014376E-2</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9711872455602478E-2</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6499957545871772E-4</v>
       </c>
     </row>
@@ -4412,15 +4412,15 @@
         <v>48367500</v>
       </c>
       <c r="E19" s="1">
-        <f>B19/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.5827224534785956E-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4858891167955026E-2</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.6833336683093026E-4</v>
       </c>
     </row>
@@ -4435,15 +4435,15 @@
         <v>72063609</v>
       </c>
       <c r="E20" s="1">
-        <f>B20/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.1429375680407814E-2</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2138529452650317E-2</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0915377224250314E-4</v>
       </c>
     </row>
@@ -4458,15 +4458,15 @@
         <v>64523128</v>
       </c>
       <c r="E21" s="1">
-        <f>B21/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.9159676301201176E-2</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9822032082866214E-2</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6235578166503814E-4</v>
       </c>
     </row>
@@ -4481,15 +4481,15 @@
         <v>64224444</v>
       </c>
       <c r="E22" s="1">
-        <f>B22/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.9130979963346454E-2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9730273917784091E-2</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9929395443763731E-4</v>
       </c>
     </row>
@@ -4504,15 +4504,15 @@
         <v>33813432</v>
       </c>
       <c r="E23" s="1">
-        <f>B23/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.2100370491403117E-2</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0387762569970493E-2</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7126079214326243E-3</v>
       </c>
     </row>
@@ -4527,15 +4527,15 @@
         <v>9325314</v>
       </c>
       <c r="E24" s="1">
-        <f>B24/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.8582688107768989E-3</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8648126496719356E-3</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5438388950366834E-6</v>
       </c>
     </row>
@@ -4550,15 +4550,15 @@
         <v>62019997</v>
       </c>
       <c r="E25" s="1">
-        <f>B25/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.8532210928372879E-2</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9053049788802338E-2</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2083886042945948E-4</v>
       </c>
     </row>
@@ -4573,15 +4573,15 @@
         <v>7682070</v>
       </c>
       <c r="E26" s="1">
-        <f>B26/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.315747172829152E-3</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3599946673822764E-3</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4247494553124444E-5</v>
       </c>
     </row>
@@ -4596,15 +4596,15 @@
         <v>7840199</v>
       </c>
       <c r="E27" s="1">
-        <f>B27/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.4875694863702455E-3</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4085731881141226E-3</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.8996298256122938E-5</v>
       </c>
     </row>
@@ -4619,15 +4619,15 @@
         <v>9322470</v>
       </c>
       <c r="E28" s="1">
-        <f>B28/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.8583659250512408E-3</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8639389496361335E-3</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5730245848927516E-6</v>
       </c>
     </row>
@@ -4642,15 +4642,15 @@
         <v>8729049</v>
       </c>
       <c r="E29" s="1">
-        <f>B29/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.6385338118776499E-3</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6816351701193291E-3</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3101358241679193E-5</v>
       </c>
     </row>
@@ -4665,15 +4665,15 @@
         <v>45416398</v>
       </c>
       <c r="E30" s="1">
-        <f>B30/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.341879834489504E-2</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3952288522717326E-2</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3349017782228572E-4</v>
       </c>
     </row>
@@ -4688,15 +4688,15 @@
         <v>55302585</v>
       </c>
       <c r="E31" s="1">
-        <f>B31/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.778043519144798E-2</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.698940594038522E-2</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.9102925106275951E-4</v>
       </c>
     </row>
@@ -4711,15 +4711,15 @@
         <v>72132109</v>
       </c>
       <c r="E32" s="1">
-        <f>B32/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.1445201214186804E-2</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.215957321230308E-2</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.143719981162755E-4</v>
       </c>
     </row>
@@ -4734,15 +4734,15 @@
         <v>68095414</v>
       </c>
       <c r="E33" s="1">
-        <f>B33/B$66</f>
+        <f t="shared" si="0"/>
         <v>2.0183804369451608E-2</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0919467528047572E-2</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3566315859596373E-4</v>
       </c>
     </row>
@@ -4757,15 +4757,15 @@
         <v>66874394</v>
       </c>
       <c r="E34" s="1">
-        <f>B34/B$66</f>
+        <f t="shared" si="0"/>
         <v>1.9884816308897046E-2</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0544360208175832E-2</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.595438992787854E-4</v>
       </c>
     </row>
@@ -4780,15 +4780,15 @@
         <v>33626927</v>
       </c>
       <c r="E35" s="1">
-        <f>B35/B$66</f>
+        <f t="shared" ref="E35:E66" si="3">B35/B$66</f>
         <v>9.9806821550568938E-3</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0330466710203512E-2</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4978455514661846E-4</v>
       </c>
     </row>
@@ -4803,15 +4803,15 @@
         <v>55263468</v>
       </c>
       <c r="E36" s="1">
-        <f>B36/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.7780543468282593E-2</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6977388878394898E-2</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.0315458988769461E-4</v>
       </c>
     </row>
@@ -4826,15 +4826,15 @@
         <v>46924712</v>
       </c>
       <c r="E37" s="1">
-        <f>B37/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.3952153660435061E-2</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4415654906613598E-2</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6350124617853747E-4</v>
       </c>
     </row>
@@ -4849,15 +4849,15 @@
         <v>50895725</v>
       </c>
       <c r="E38" s="1">
-        <f>B38/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.5114316460633078E-2</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5635582543839722E-2</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.212660832066441E-4</v>
       </c>
     </row>
@@ -4872,15 +4872,15 @@
         <v>41625091</v>
       </c>
       <c r="E39" s="1">
-        <f>B39/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.2450932929169472E-2</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2787568036909582E-2</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.366351077401103E-4</v>
       </c>
     </row>
@@ -4895,15 +4895,15 @@
         <v>7835384</v>
       </c>
       <c r="E40" s="1">
-        <f>B40/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.4896405133855251E-3</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4070939807750271E-3</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.2546532610497988E-5</v>
       </c>
     </row>
@@ -4918,15 +4918,15 @@
         <v>49493466</v>
       </c>
       <c r="E41" s="1">
-        <f>B41/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.4675018738348068E-2</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5204797122424818E-2</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2977838407674942E-4</v>
       </c>
     </row>
@@ -4941,15 +4941,15 @@
         <v>53282332</v>
       </c>
       <c r="E42" s="1">
-        <f>B42/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.5973659093336118E-2</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6368767713089316E-2</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9510861975319833E-4</v>
       </c>
     </row>
@@ -4964,15 +4964,15 @@
         <v>41596628</v>
       </c>
       <c r="E43" s="1">
-        <f>B43/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.2444768591303477E-2</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2778823970763646E-2</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3405537946016965E-4</v>
       </c>
     </row>
@@ -4987,15 +4987,15 @@
         <v>33833521</v>
       </c>
       <c r="E44" s="1">
-        <f>B44/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.2114092998827391E-2</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0393934074899899E-2</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.7201589239274912E-3</v>
       </c>
     </row>
@@ -5010,15 +5010,15 @@
         <v>40468829</v>
       </c>
       <c r="E45" s="1">
-        <f>B45/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.2067983439038053E-2</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2432354903718038E-2</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6437146467998421E-4</v>
       </c>
     </row>
@@ -5033,15 +5033,15 @@
         <v>40100087</v>
       </c>
       <c r="E46" s="1">
-        <f>B46/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.19078393960506E-2</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2319074348654119E-2</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1123495260351854E-4</v>
       </c>
     </row>
@@ -5056,15 +5056,15 @@
         <v>33668234</v>
       </c>
       <c r="E47" s="1">
-        <f>B47/B$66</f>
+        <f t="shared" si="3"/>
         <v>9.9946081931634075E-3</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0343156558086382E-2</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4854836492297439E-4</v>
       </c>
     </row>
@@ -5079,15 +5079,15 @@
         <v>48426376</v>
       </c>
       <c r="E48" s="1">
-        <f>B48/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.5866226520366549E-2</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4876978356178615E-2</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-9.8924816418793395E-4</v>
       </c>
     </row>
@@ -5102,15 +5102,15 @@
         <v>49774664</v>
       </c>
       <c r="E49" s="1">
-        <f>B49/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.4728654840441585E-2</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5291183445444336E-2</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6252860500275066E-4</v>
       </c>
     </row>
@@ -5125,15 +5125,15 @@
         <v>68607149</v>
       </c>
       <c r="E50" s="1">
-        <f>B50/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.0248490662040951E-2</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1076676700980502E-2</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2818603893955109E-4</v>
       </c>
     </row>
@@ -5148,15 +5148,15 @@
         <v>40087556</v>
       </c>
       <c r="E51" s="1">
-        <f>B51/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.190070503169721E-2</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.231522472307443E-2</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1451969137721971E-4</v>
       </c>
     </row>
@@ -5171,15 +5171,15 @@
         <v>45438887</v>
       </c>
       <c r="E52" s="1">
-        <f>B52/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.3435291771863473E-2</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3959197327255004E-2</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2390555539153123E-4</v>
       </c>
     </row>
@@ -5194,15 +5194,15 @@
         <v>63022070</v>
       </c>
       <c r="E53" s="1">
-        <f>B53/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.0914165478670727E-2</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9360894801452283E-2</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.5532706772184435E-3</v>
       </c>
     </row>
@@ -5217,15 +5217,15 @@
         <v>68445147</v>
       </c>
       <c r="E54" s="1">
-        <f>B54/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.0267528780665418E-2</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1026908363005806E-2</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5937958234038871E-4</v>
       </c>
     </row>
@@ -5240,15 +5240,15 @@
         <v>53295352</v>
       </c>
       <c r="E55" s="1">
-        <f>B55/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.5962823968168147E-2</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6372767563464188E-2</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0994359529604105E-4</v>
       </c>
     </row>
@@ -5263,15 +5263,15 @@
         <v>7697455</v>
       </c>
       <c r="E56" s="1">
-        <f>B56/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.3203703332073133E-3</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3647210650794698E-3</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4350731872156487E-5</v>
       </c>
     </row>
@@ -5286,15 +5286,15 @@
         <v>69826550</v>
       </c>
       <c r="E57" s="1">
-        <f>B57/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.267676276783448E-2</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1451286650824831E-2</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2254761170096481E-3</v>
       </c>
     </row>
@@ -5309,15 +5309,15 @@
         <v>68431259</v>
       </c>
       <c r="E58" s="1">
-        <f>B58/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.0272569420797647E-2</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1022641855939272E-2</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5007243514162505E-4</v>
       </c>
     </row>
@@ -5332,15 +5332,15 @@
         <v>50947070</v>
       </c>
       <c r="E59" s="1">
-        <f>B59/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.5126488488435959E-2</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5651356147334192E-2</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2486765889823289E-4</v>
       </c>
     </row>
@@ -5355,15 +5355,15 @@
         <v>64286479</v>
       </c>
       <c r="E60" s="1">
-        <f>B60/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.9167489721304276E-2</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9749331576617072E-2</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8184185531279589E-4</v>
       </c>
     </row>
@@ -5378,15 +5378,15 @@
         <v>63665730</v>
       </c>
       <c r="E61" s="1">
-        <f>B61/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.0682543469340803E-2</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9558632412227411E-2</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.1239110571133921E-3</v>
       </c>
     </row>
@@ -5401,15 +5401,15 @@
         <v>68680923</v>
       </c>
       <c r="E62" s="1">
-        <f>B62/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.0275978838789201E-2</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.109934067652244E-2</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2336183773323857E-4</v>
       </c>
     </row>
@@ -5424,15 +5424,15 @@
         <v>66980660</v>
       </c>
       <c r="E63" s="1">
-        <f>B63/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.9907789230016407E-2</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.057700599158109E-2</v>
       </c>
       <c r="G63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.692167615646831E-4</v>
       </c>
     </row>
@@ -5447,15 +5447,15 @@
         <v>64326155</v>
       </c>
       <c r="E64" s="1">
-        <f>B64/B$66</f>
+        <f t="shared" si="3"/>
         <v>1.9019247200075844E-2</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9761520367974485E-2</v>
       </c>
       <c r="G64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4227316789864106E-4</v>
       </c>
     </row>
@@ -5470,11 +5470,11 @@
         <v>70881300</v>
       </c>
       <c r="E65" s="1">
-        <f>B65/B$66</f>
+        <f t="shared" si="3"/>
         <v>2.6715423211814346E-2</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1775314468251834E-2</v>
       </c>
       <c r="G65" s="1">
@@ -5492,11 +5492,11 @@
         <v>3255121762</v>
       </c>
       <c r="E66" s="1">
-        <f>B66/B$66</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
